--- a/public/docs/template_modelo_smt.xlsx
+++ b/public/docs/template_modelo_smt.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Titulo/Outros</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>11111111</t>
+  </si>
+  <si>
+    <t>5920000</t>
   </si>
   <si>
     <t>Campo</t>
@@ -504,7 +507,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -514,6 +517,9 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -565,7 +571,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="dimi" id="{A50BB9B0-B1B0-943F-81F0-6509922169DA}"/>
+  <person displayName="dimi" id="{0B04C72C-A780-9DB3-46C0-542997B0D7BD}"/>
 </personList>
 </file>
 
@@ -1061,22 +1067,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" personId="{A50BB9B0-B1B0-943F-81F0-6509922169DA}" id="{00B8009B-002A-42D0-8146-00C400440032}" done="0">
+  <threadedComment ref="B1" personId="{0B04C72C-A780-9DB3-46C0-542997B0D7BD}" id="{00B8009B-002A-42D0-8146-00C400440032}" done="0">
     <text xml:space="preserve">CAMPO OBRIGATÓRIO:
 Este campo presica estar preenchido.
 </text>
   </threadedComment>
-  <threadedComment ref="M1" personId="{A50BB9B0-B1B0-943F-81F0-6509922169DA}" id="{00630054-002A-4864-B68E-00A700F20083}" done="0">
+  <threadedComment ref="M1" personId="{0B04C72C-A780-9DB3-46C0-542997B0D7BD}" id="{00630054-002A-4864-B68E-00A700F20083}" done="0">
     <text xml:space="preserve">N - para endereços nacionais.
 I - para endereços internacionais.
 </text>
   </threadedComment>
-  <threadedComment ref="O1" personId="{A50BB9B0-B1B0-943F-81F0-6509922169DA}" id="{00E1009F-0035-4D03-887F-006600C8006D}" done="0">
+  <threadedComment ref="O1" personId="{0B04C72C-A780-9DB3-46C0-542997B0D7BD}" id="{00E1009F-0035-4D03-887F-006600C8006D}" done="0">
     <text xml:space="preserve">CAMPO OBRIGATÓRIO:
 Este campo presica estar preenchido.
 </text>
   </threadedComment>
-  <threadedComment ref="G1" personId="{A50BB9B0-B1B0-943F-81F0-6509922169DA}" id="{00E000B7-00E5-45AE-A4F7-007700DB0014}" done="0">
+  <threadedComment ref="G1" personId="{0B04C72C-A780-9DB3-46C0-542997B0D7BD}" id="{00E000B7-00E5-45AE-A4F7-007700DB0014}" done="0">
     <text xml:space="preserve">CAMPO OBRIGATÓRIO:
 Este campo presica estar preenchido.
 </text>
@@ -1566,8 +1572,8 @@
       <c r="F9" s="1">
         <v>12312312300</v>
       </c>
-      <c r="G9" s="1">
-        <v>75920000</v>
+      <c r="G9" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
@@ -1604,7 +1610,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="R12" s="5"/>
+      <c r="R12" s="6"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hb5sTWqI+aD260QTUN7A/p8m9JcoCk7kTBgtjoL2nFGzoSlkMeFewZJGP2oeO5rIt5W42WWJt7W1W3RW774TCg==" saltValue="q+9kNYmohnULCWT+E3q7tw==" spinCount="100000" autoFilter="0" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="0"/>
@@ -1617,7 +1623,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="1" id="{00B1006C-0082-4B52-9C6A-00AF008D0064}">
+          <x14:cfRule type="duplicateValues" priority="1" id="{003A009C-0000-4200-B792-00D500AB00A1}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -1647,99 +1653,99 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="6" width="52.5703125"/>
-    <col customWidth="1" min="2" max="2" style="6" width="7.42578125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="6" width="21.85546875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="6" width="11.140625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="6" width="8.7109375"/>
-    <col customWidth="1" min="6" max="6" style="6" width="16.28515625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="6" width="26.140625"/>
-    <col min="8" max="16384" style="6" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" style="7" width="52.5703125"/>
+    <col customWidth="1" min="2" max="2" style="7" width="7.42578125"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="7" width="21.85546875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="7" width="11.140625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="7" width="8.7109375"/>
+    <col customWidth="1" min="6" max="6" style="7" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="7" width="26.140625"/>
+    <col min="8" max="16384" style="7" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="45">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>77</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="11">
         <v>40</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>60</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="11">
         <v>50</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>83</v>
+      <c r="A6" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="11">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -1747,14 +1753,14 @@
     <row r="7">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="11">
         <v>15</v>
       </c>
       <c r="G7" s="1"/>
@@ -1762,33 +1768,33 @@
     <row r="8">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11">
         <v>14</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" ht="45">
-      <c r="A9" s="14" t="s">
-        <v>84</v>
+      <c r="A9" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="B9"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="13">
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
@@ -1796,14 +1802,14 @@
     <row r="10">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="11">
         <v>72</v>
       </c>
       <c r="G10" s="1"/>
@@ -1811,14 +1817,14 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="11">
         <v>72</v>
       </c>
       <c r="G11" s="1"/>
@@ -1826,14 +1832,14 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="11">
         <v>72</v>
       </c>
       <c r="G12" s="1"/>
@@ -1841,14 +1847,14 @@
     <row r="13">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="C13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="11">
         <v>72</v>
       </c>
       <c r="G13" s="1"/>
@@ -1856,31 +1862,31 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="11">
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>86</v>
+      <c r="A15" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="11">
         <v>1</v>
       </c>
       <c r="G15" s="1"/>
@@ -1888,50 +1894,50 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11">
         <v>40</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" ht="30">
-      <c r="A17" s="14" t="s">
-        <v>87</v>
+      <c r="A17" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="D17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="13">
         <v>15</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" ht="45">
-      <c r="A18" s="15" t="s">
-        <v>88</v>
+      <c r="A18" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="C18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="11">
         <v>100</v>
       </c>
       <c r="G18" s="1"/>
@@ -1946,7 +1952,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="1" id="{004A0047-00C4-4BC2-AE27-00E400D900B3}">
+          <x14:cfRule type="duplicateValues" priority="1" id="{00AE0069-00C2-4FCA-9ED5-0045004B00B9}">
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
